--- a/Semester 5/DAN/Experiments/EXP2/EXP2.xlsx
+++ b/Semester 5/DAN/Experiments/EXP2/EXP2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Amaan\Semester 5\DAN\Experiments\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MSBTE-CO-K\Semester 5\DAN\Experiments\EXP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1198297-D0B8-4AB5-9B84-1FCA81238418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD0C6C1-58FE-49C6-B0F7-06C90D2DA301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Practical 2.2" sheetId="1" r:id="rId1"/>
@@ -18,21 +18,30 @@
     <sheet name="Practical 2.6" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'Practical 2.2'!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'Practical 2.2'!$A$2:$A$11</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'Practical 2.2'!$A$2:$A$11</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'Practical 2.2'!$B$3:$B$12</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Group A</t>
   </si>
@@ -41,6 +50,9 @@
   </si>
   <si>
     <t>T Test</t>
+  </si>
+  <si>
+    <t>Data</t>
   </si>
 </sst>
 </file>
@@ -138,7 +150,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -777,16 +789,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>150813</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -822,8 +834,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="657225" y="204787"/>
-              <a:ext cx="3151188" cy="1890713"/>
+              <a:off x="1343025" y="214312"/>
+              <a:ext cx="3429000" cy="2057400"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -842,7 +854,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-IN" sz="1100"/>
+                <a:rPr lang="en-US" sz="1100"/>
                 <a:t>This chart isn't available in your version of Excel.
 Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
               </a:r>
@@ -1119,61 +1131,64 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A11"/>
+  <dimension ref="B2:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+    <row r="11" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B12" s="1">
         <v>100</v>
       </c>
     </row>
@@ -1187,18 +1202,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B5E9DD-1500-49B2-ADBA-771976F8717B}">
   <dimension ref="B1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
@@ -1259,9 +1272,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889CA98B-37F8-4E69-A58F-31517312818E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
